--- a/Code/Results/Cases/Case_2_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.291303678685836</v>
+        <v>1.551830800456742</v>
       </c>
       <c r="C2">
-        <v>0.4342546054727165</v>
+        <v>0.1837026811945179</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03568835686362348</v>
+        <v>0.08309285813966838</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.9928183589964021</v>
+        <v>0.9951647432747848</v>
       </c>
       <c r="H2">
-        <v>0.6049218828311069</v>
+        <v>0.9768654957502179</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3233255341278323</v>
+        <v>0.2275577897234911</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6501455372349554</v>
+        <v>1.303212590595503</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.853867107052281</v>
+        <v>1.435940737329986</v>
       </c>
       <c r="C3">
-        <v>0.3843065822472056</v>
+        <v>0.16798027384948</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03505841191369896</v>
+        <v>0.0834689652082119</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.9017526680695198</v>
+        <v>0.9820497032226712</v>
       </c>
       <c r="H3">
-        <v>0.5717740481529745</v>
+        <v>0.9771427098800416</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2834611092347643</v>
+        <v>0.218211674527879</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6997934905805963</v>
+        <v>1.322286152871644</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.588203640835729</v>
+        <v>1.36544419479003</v>
       </c>
       <c r="C4">
-        <v>0.3537747207246298</v>
+        <v>0.1582513534000896</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03472997867957694</v>
+        <v>0.08373409204934035</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.8487450069475955</v>
+        <v>0.9748565468470929</v>
       </c>
       <c r="H4">
-        <v>0.5530238753191696</v>
+        <v>0.9779422425865079</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2593975784237585</v>
+        <v>0.2126037950455952</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7316882523885795</v>
+        <v>1.334597215390133</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.480576691683439</v>
+        <v>1.336882217070411</v>
       </c>
       <c r="C5">
-        <v>0.3413566775725201</v>
+        <v>0.1542677469071521</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03461013812010272</v>
+        <v>0.0838507359652283</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.8278103197618663</v>
+        <v>0.9721402288361958</v>
       </c>
       <c r="H5">
-        <v>0.5457561121973811</v>
+        <v>0.9784258916045587</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2496839844635872</v>
+        <v>0.2103513370967249</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7450275326899156</v>
+        <v>1.339764741325979</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.462740706986494</v>
+        <v>1.332149541195975</v>
       </c>
       <c r="C6">
-        <v>0.3392958291647403</v>
+        <v>0.1536051233490809</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03459106525438749</v>
+        <v>0.08387062428842817</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.824372575406656</v>
+        <v>0.9717021343146257</v>
       </c>
       <c r="H6">
-        <v>0.5445710044561451</v>
+        <v>0.9785157218053797</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2480763162267579</v>
+        <v>0.2099792974045016</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7472628027840482</v>
+        <v>1.340631900430679</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.586749712611208</v>
+        <v>1.365058326268468</v>
       </c>
       <c r="C7">
-        <v>0.3536071628382729</v>
+        <v>0.1581977060626798</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03472830664835058</v>
+        <v>0.08373563031314823</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8484600584110638</v>
+        <v>0.9748190448719356</v>
       </c>
       <c r="H7">
-        <v>0.5529243871186509</v>
+        <v>0.9779481267435131</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2592662175613185</v>
+        <v>0.2125732848872133</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7318667824935225</v>
+        <v>1.334666296622901</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.139804510191539</v>
+        <v>1.511734711314375</v>
       </c>
       <c r="C8">
-        <v>0.4169976967926914</v>
+        <v>0.178297183753358</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03545861946288476</v>
+        <v>0.08321544474772757</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.960775145196223</v>
+        <v>0.9904635604340939</v>
       </c>
       <c r="H8">
-        <v>0.5931411467025072</v>
+        <v>0.9768302097231185</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3094873125046576</v>
+        <v>0.2243080877693586</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6669633471615448</v>
+        <v>1.309664566548934</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.252626543029521</v>
+        <v>1.804629888338013</v>
       </c>
       <c r="C9">
-        <v>0.5429076284885639</v>
+        <v>0.2171191792831166</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03738675933011315</v>
+        <v>0.08246656499196092</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.207273463131713</v>
+        <v>1.028019046609387</v>
       </c>
       <c r="H9">
-        <v>0.6861971121860506</v>
+        <v>0.9796515240484212</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4118173428571055</v>
+        <v>0.2483610955125215</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5515073375949502</v>
+        <v>1.265402125832015</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.095308280853828</v>
+        <v>2.023085094830378</v>
       </c>
       <c r="C10">
-        <v>0.6371983892462367</v>
+        <v>0.2452889679385919</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03915581183884598</v>
+        <v>0.08208159403843851</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.409262265972558</v>
+        <v>1.059886297703201</v>
       </c>
       <c r="H10">
-        <v>0.7654789886510684</v>
+        <v>0.9848107095034493</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4902158349816261</v>
+        <v>0.2666756477086665</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4748397006195848</v>
+        <v>1.235796059257627</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.486089888357981</v>
+        <v>2.123188961850303</v>
       </c>
       <c r="C11">
-        <v>0.6806869730733354</v>
+        <v>0.2580296139829841</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04004952942586293</v>
+        <v>0.08194232541086066</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.506916234378508</v>
+        <v>1.075330142148317</v>
       </c>
       <c r="H11">
-        <v>0.8044855612820925</v>
+        <v>0.9878345973293108</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.526798344481989</v>
+        <v>0.2751489058414478</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4419724583414286</v>
+        <v>1.222961972170143</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.6353236152043</v>
+        <v>2.161200941578443</v>
       </c>
       <c r="C12">
-        <v>0.6972599848899108</v>
+        <v>0.2628436449359413</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04040190227353158</v>
+        <v>0.08189474254502649</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.544840571335897</v>
+        <v>1.081315946291852</v>
       </c>
       <c r="H12">
-        <v>0.8197329562768232</v>
+        <v>0.9890775251129185</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5408037103865979</v>
+        <v>0.2783780216711023</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4298382323058423</v>
+        <v>1.218193387922286</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.603124584591171</v>
+        <v>2.153009716341501</v>
       </c>
       <c r="C13">
-        <v>0.6936856964865683</v>
+        <v>0.2618073266555712</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04032537288681048</v>
+        <v>0.08190476110440414</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.536628882328841</v>
+        <v>1.080020657034538</v>
       </c>
       <c r="H13">
-        <v>0.8164270477894604</v>
+        <v>0.9888054785345446</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5377802809316989</v>
+        <v>0.2776816618674189</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4324372907216745</v>
+        <v>1.219216318375672</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.498341197256423</v>
+        <v>2.12631412834935</v>
       </c>
       <c r="C14">
-        <v>0.6820482252724105</v>
+        <v>0.2584258788204181</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04007823295138557</v>
+        <v>0.08193830742822072</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.51001664702008</v>
+        <v>1.075819833340205</v>
       </c>
       <c r="H14">
-        <v>0.805730096165945</v>
+        <v>0.9879348898461444</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5279473966623556</v>
+        <v>0.2754141563189449</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4409677769843849</v>
+        <v>1.222567824462116</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.434327341968697</v>
+        <v>2.109975966684317</v>
       </c>
       <c r="C15">
-        <v>0.6749342006067423</v>
+        <v>0.2563532688826626</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03992870425357609</v>
+        <v>0.08195952684488184</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.493842588072027</v>
+        <v>1.073264661202643</v>
       </c>
       <c r="H15">
-        <v>0.799241646417471</v>
+        <v>0.9874143867282896</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5219449530744384</v>
+        <v>0.2740279126578855</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.446234287680749</v>
+        <v>1.224632630234524</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.069934717121441</v>
+        <v>2.016557727825898</v>
       </c>
       <c r="C16">
-        <v>0.6343698779701299</v>
+        <v>0.2444548538085201</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03909929106282206</v>
+        <v>0.08209141700850076</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.40300599601656</v>
+        <v>1.058896181921568</v>
       </c>
       <c r="H16">
-        <v>0.7629934373281912</v>
+        <v>0.9846267561070476</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4878452494929348</v>
+        <v>0.266124761661942</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4770299890204193</v>
+        <v>1.23664757379033</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.848421572347831</v>
+        <v>1.959435132744943</v>
       </c>
       <c r="C17">
-        <v>0.6096504124574551</v>
+        <v>0.2371366650866378</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03861404071265717</v>
+        <v>0.0821815103274588</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.348836216933876</v>
+        <v>1.050325154064694</v>
       </c>
       <c r="H17">
-        <v>0.741545812456053</v>
+        <v>0.9830903737374399</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4671752069500741</v>
+        <v>0.2613128253372707</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4964523300783839</v>
+        <v>1.244180880510525</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.721701388606732</v>
+        <v>1.926648188924219</v>
       </c>
       <c r="C18">
-        <v>0.5954871775305151</v>
+        <v>0.2329204741669457</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03834323631878256</v>
+        <v>0.08223670466388455</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.318214496571329</v>
+        <v>1.045484406683727</v>
       </c>
       <c r="H18">
-        <v>0.7294829710180579</v>
+        <v>0.9822703744617343</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.455371475289482</v>
+        <v>0.2585584762981625</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5078111522032263</v>
+        <v>1.248573485469926</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.678909078814911</v>
+        <v>1.915558845629334</v>
       </c>
       <c r="C19">
-        <v>0.5907006033020821</v>
+        <v>0.2314917469044815</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03825293879321379</v>
+        <v>0.08225597221730574</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.307935137245181</v>
+        <v>1.04386067191632</v>
       </c>
       <c r="H19">
-        <v>0.7254440980531172</v>
+        <v>0.982003659900414</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4513889737873029</v>
+        <v>0.257628191565118</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5116886163827363</v>
+        <v>1.250070982581914</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.871929524613279</v>
+        <v>1.965508843534451</v>
       </c>
       <c r="C20">
-        <v>0.612276043523309</v>
+        <v>0.2379164189367486</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03866482959810114</v>
+        <v>0.08217157044376755</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.354546485296851</v>
+        <v>1.051228325400672</v>
       </c>
       <c r="H20">
-        <v>0.7438002978941256</v>
+        <v>0.983247329275315</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4693666178465321</v>
+        <v>0.2618236820144233</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4943652139527686</v>
+        <v>1.243372772177848</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.529083043023036</v>
+        <v>2.134152423194337</v>
       </c>
       <c r="C21">
-        <v>0.6854634226945677</v>
+        <v>0.2594193785669745</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04015043584275269</v>
+        <v>0.08192831415786017</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.517806675827046</v>
+        <v>1.077049973156988</v>
       </c>
       <c r="H21">
-        <v>0.8088586620191904</v>
+        <v>0.9881879432716119</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5308312453170316</v>
+        <v>0.2760796213176491</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4384535062122108</v>
+        <v>1.221580923061953</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.965976104168419</v>
+        <v>2.244981819729787</v>
       </c>
       <c r="C22">
-        <v>0.7339173099470884</v>
+        <v>0.2734111929060816</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0412032466673562</v>
+        <v>0.08179937987323527</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.630077669423997</v>
+        <v>1.094728319012319</v>
       </c>
       <c r="H22">
-        <v>0.8541846344827491</v>
+        <v>0.9919874850419887</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5719011105524601</v>
+        <v>0.2855160930084395</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4037424449399332</v>
+        <v>1.207871598563752</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.73205437514207</v>
+        <v>2.185774099210278</v>
       </c>
       <c r="C23">
-        <v>0.7079926882168479</v>
+        <v>0.2659491167671888</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04063343885834136</v>
+        <v>0.08186544544132701</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>1.569605101657402</v>
+        <v>1.085219188058403</v>
       </c>
       <c r="H23">
-        <v>0.829717166870239</v>
+        <v>0.9899072238304711</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5498917762663353</v>
+        <v>0.2804687207756587</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4220926317781206</v>
+        <v>1.215139674935994</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.861299628565234</v>
+        <v>1.962762751956461</v>
       </c>
       <c r="C24">
-        <v>0.6110888466513416</v>
+        <v>0.2375639198463944</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03864184257280989</v>
+        <v>0.08217605367947023</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>1.351963258085533</v>
+        <v>1.050819731211817</v>
       </c>
       <c r="H24">
-        <v>0.7427802152244567</v>
+        <v>0.9831761725773447</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4683756340764234</v>
+        <v>0.2615926860371474</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.495308200766301</v>
+        <v>1.243737926071777</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.947786979687066</v>
+        <v>1.72482475039601</v>
       </c>
       <c r="C25">
-        <v>0.508595881675177</v>
+        <v>0.2066793862462077</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03680714435925125</v>
+        <v>0.0826401337680096</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>1.137303793585119</v>
+        <v>1.017114548628683</v>
       </c>
       <c r="H25">
-        <v>0.6592836910457436</v>
+        <v>0.9783484700196539</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3836376173958911</v>
+        <v>0.2417418304359273</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5813833181084576</v>
+        <v>1.276865254151907</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.551830800456742</v>
+        <v>3.291303678685779</v>
       </c>
       <c r="C2">
-        <v>0.1837026811945179</v>
+        <v>0.4342546054728587</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08309285813966838</v>
+        <v>0.03568835686359506</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.9951647432747848</v>
+        <v>0.9928183589963311</v>
       </c>
       <c r="H2">
-        <v>0.9768654957502179</v>
+        <v>0.6049218828311069</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2275577897234911</v>
+        <v>0.3233255341278891</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.303212590595503</v>
+        <v>0.6501455372349714</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.435940737329986</v>
+        <v>2.853867107052167</v>
       </c>
       <c r="C3">
-        <v>0.16798027384948</v>
+        <v>0.3843065822469214</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0834689652082119</v>
+        <v>0.03505841191371495</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.9820497032226712</v>
+        <v>0.9017526680694914</v>
       </c>
       <c r="H3">
-        <v>0.9771427098800416</v>
+        <v>0.5717740481529461</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.218211674527879</v>
+        <v>0.2834611092347785</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.322286152871644</v>
+        <v>0.6997934905805785</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.36544419479003</v>
+        <v>2.588203640835786</v>
       </c>
       <c r="C4">
-        <v>0.1582513534000896</v>
+        <v>0.3537747207248856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08373409204934035</v>
+        <v>0.03472997867959293</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.9748565468470929</v>
+        <v>0.8487450069475955</v>
       </c>
       <c r="H4">
-        <v>0.9779422425865079</v>
+        <v>0.5530238753192833</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2126037950455952</v>
+        <v>0.2593975784237443</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.334597215390133</v>
+        <v>0.7316882523885191</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.336882217070411</v>
+        <v>2.480576691683439</v>
       </c>
       <c r="C5">
-        <v>0.1542677469071521</v>
+        <v>0.3413566775724064</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0838507359652283</v>
+        <v>0.03461013812010272</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.9721402288361958</v>
+        <v>0.8278103197618947</v>
       </c>
       <c r="H5">
-        <v>0.9784258916045587</v>
+        <v>0.5457561121973811</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2103513370967249</v>
+        <v>0.249683984463573</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.339764741325979</v>
+        <v>0.745027532689905</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.332149541195975</v>
+        <v>2.462740706986381</v>
       </c>
       <c r="C6">
-        <v>0.1536051233490809</v>
+        <v>0.3392958291647403</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08387062428842817</v>
+        <v>0.03459106525438571</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.9717021343146257</v>
+        <v>0.8243725754066986</v>
       </c>
       <c r="H6">
-        <v>0.9785157218053797</v>
+        <v>0.5445710044561594</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2099792974045016</v>
+        <v>0.2480763162267294</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.340631900430679</v>
+        <v>0.7472628027840518</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365058326268468</v>
+        <v>2.586749712611095</v>
       </c>
       <c r="C7">
-        <v>0.1581977060626798</v>
+        <v>0.3536071628381308</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08373563031314823</v>
+        <v>0.03472830664834881</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.9748190448719356</v>
+        <v>0.8484600584111206</v>
       </c>
       <c r="H7">
-        <v>0.9779481267435131</v>
+        <v>0.5529243871187646</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2125732848872133</v>
+        <v>0.2592662175613611</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.334666296622901</v>
+        <v>0.7318667824935225</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.511734711314375</v>
+        <v>3.139804510191652</v>
       </c>
       <c r="C8">
-        <v>0.178297183753358</v>
+        <v>0.4169976967925493</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08321544474772757</v>
+        <v>0.03545861946289719</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.9904635604340939</v>
+        <v>0.960775145196223</v>
       </c>
       <c r="H8">
-        <v>0.9768302097231185</v>
+        <v>0.5931411467026209</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2243080877693586</v>
+        <v>0.3094873125046718</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.309664566548934</v>
+        <v>0.6669633471615963</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.804629888338013</v>
+        <v>4.252626543029407</v>
       </c>
       <c r="C9">
-        <v>0.2171191792831166</v>
+        <v>0.5429076284883934</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08246656499196092</v>
+        <v>0.03738675933011315</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.028019046609387</v>
+        <v>1.207273463131628</v>
       </c>
       <c r="H9">
-        <v>0.9796515240484212</v>
+        <v>0.6861971121860506</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2483610955125215</v>
+        <v>0.4118173428571481</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.265402125832015</v>
+        <v>0.5515073375950159</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.023085094830378</v>
+        <v>5.095308280853715</v>
       </c>
       <c r="C10">
-        <v>0.2452889679385919</v>
+        <v>0.6371983892459809</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08208159403843851</v>
+        <v>0.03915581183886729</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.059886297703201</v>
+        <v>1.409262265972558</v>
       </c>
       <c r="H10">
-        <v>0.9848107095034493</v>
+        <v>0.7654789886511821</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2666756477086665</v>
+        <v>0.4902158349816403</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.235796059257627</v>
+        <v>0.4748397006195955</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.123188961850303</v>
+        <v>5.486089888358038</v>
       </c>
       <c r="C11">
-        <v>0.2580296139829841</v>
+        <v>0.6806869730733069</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08194232541086066</v>
+        <v>0.04004952942587003</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.075330142148317</v>
+        <v>1.506916234378537</v>
       </c>
       <c r="H11">
-        <v>0.9878345973293108</v>
+        <v>0.8044855612822062</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2751489058414478</v>
+        <v>0.5267983444819606</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.222961972170143</v>
+        <v>0.4419724583414357</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.161200941578443</v>
+        <v>5.635323615204243</v>
       </c>
       <c r="C12">
-        <v>0.2628436449359413</v>
+        <v>0.6972599848897687</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08189474254502649</v>
+        <v>0.04040190227357776</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.081315946291852</v>
+        <v>1.544840571335897</v>
       </c>
       <c r="H12">
-        <v>0.9890775251129185</v>
+        <v>0.8197329562768232</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2783780216711023</v>
+        <v>0.5408037103864842</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.218193387922286</v>
+        <v>0.4298382323059133</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.153009716341501</v>
+        <v>5.603124584591001</v>
       </c>
       <c r="C13">
-        <v>0.2618073266555712</v>
+        <v>0.6936856964866536</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08190476110440414</v>
+        <v>0.04032537288679805</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.080020657034538</v>
+        <v>1.536628882328841</v>
       </c>
       <c r="H13">
-        <v>0.9888054785345446</v>
+        <v>0.8164270477894604</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2776816618674189</v>
+        <v>0.5377802809316705</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.219216318375672</v>
+        <v>0.4324372907216869</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.12631412834935</v>
+        <v>5.498341197256366</v>
       </c>
       <c r="C14">
-        <v>0.2584258788204181</v>
+        <v>0.6820482252724105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08193830742822072</v>
+        <v>0.04007823295136426</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.075819833340205</v>
+        <v>1.510016647020052</v>
       </c>
       <c r="H14">
-        <v>0.9879348898461444</v>
+        <v>0.805730096165945</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2754141563189449</v>
+        <v>0.5279473966623414</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.222567824462116</v>
+        <v>0.4409677769843903</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.109975966684317</v>
+        <v>5.434327341968697</v>
       </c>
       <c r="C15">
-        <v>0.2563532688826626</v>
+        <v>0.6749342006065149</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08195952684488184</v>
+        <v>0.03992870425354056</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.073264661202643</v>
+        <v>1.493842588072027</v>
       </c>
       <c r="H15">
-        <v>0.9874143867282896</v>
+        <v>0.799241646417471</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2740279126578855</v>
+        <v>0.5219449530744242</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.224632630234524</v>
+        <v>0.4462342876806815</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.016557727825898</v>
+        <v>5.069934717121441</v>
       </c>
       <c r="C16">
-        <v>0.2444548538085201</v>
+        <v>0.6343698779701299</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08209141700850076</v>
+        <v>0.03909929106284693</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.058896181921568</v>
+        <v>1.403005996016532</v>
       </c>
       <c r="H16">
-        <v>0.9846267561070476</v>
+        <v>0.7629934373281912</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.266124761661942</v>
+        <v>0.4878452494930059</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.23664757379033</v>
+        <v>0.4770299890204264</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.959435132744943</v>
+        <v>4.848421572347718</v>
       </c>
       <c r="C17">
-        <v>0.2371366650866378</v>
+        <v>0.6096504124577962</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0821815103274588</v>
+        <v>0.03861404071265895</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.050325154064694</v>
+        <v>1.348836216933819</v>
       </c>
       <c r="H17">
-        <v>0.9830903737374399</v>
+        <v>0.7415458124559393</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2613128253372707</v>
+        <v>0.4671752069501878</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.244180880510525</v>
+        <v>0.4964523300783945</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.926648188924219</v>
+        <v>4.721701388606846</v>
       </c>
       <c r="C18">
-        <v>0.2329204741669457</v>
+        <v>0.5954871775307709</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08223670466388455</v>
+        <v>0.03834323631873104</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.045484406683727</v>
+        <v>1.318214496571244</v>
       </c>
       <c r="H18">
-        <v>0.9822703744617343</v>
+        <v>0.7294829710179442</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2585584762981625</v>
+        <v>0.4553714752896099</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.248573485469926</v>
+        <v>0.5078111522032351</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.915558845629334</v>
+        <v>4.67890907881474</v>
       </c>
       <c r="C19">
-        <v>0.2314917469044815</v>
+        <v>0.5907006033021958</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08225597221730574</v>
+        <v>0.03825293879321556</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.04386067191632</v>
+        <v>1.307935137245266</v>
       </c>
       <c r="H19">
-        <v>0.982003659900414</v>
+        <v>0.7254440980531172</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.257628191565118</v>
+        <v>0.4513889737872034</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.250070982581914</v>
+        <v>0.5116886163827878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.965508843534451</v>
+        <v>4.871929524613279</v>
       </c>
       <c r="C20">
-        <v>0.2379164189367486</v>
+        <v>0.6122760435235648</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08217157044376755</v>
+        <v>0.03866482959810291</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.051228325400672</v>
+        <v>1.354546485296822</v>
       </c>
       <c r="H20">
-        <v>0.983247329275315</v>
+        <v>0.7438002978941256</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2618236820144233</v>
+        <v>0.4693666178466742</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.243372772177848</v>
+        <v>0.4943652139527828</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.134152423194337</v>
+        <v>5.529083043022979</v>
       </c>
       <c r="C21">
-        <v>0.2594193785669745</v>
+        <v>0.6854634226946246</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08192831415786017</v>
+        <v>0.04015043584277045</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.077049973156988</v>
+        <v>1.517806675827075</v>
       </c>
       <c r="H21">
-        <v>0.9881879432716119</v>
+        <v>0.8088586620191904</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2760796213176491</v>
+        <v>0.5308312453169748</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.221580923061953</v>
+        <v>0.4384535062122215</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.244981819729787</v>
+        <v>5.965976104168476</v>
       </c>
       <c r="C22">
-        <v>0.2734111929060816</v>
+        <v>0.7339173099470315</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08179937987323527</v>
+        <v>0.04120324666738284</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.094728319012319</v>
+        <v>1.630077669423997</v>
       </c>
       <c r="H22">
-        <v>0.9919874850419887</v>
+        <v>0.8541846344828343</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2855160930084395</v>
+        <v>0.5719011105524743</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.207871598563752</v>
+        <v>0.4037424449399349</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.185774099210278</v>
+        <v>5.73205437514207</v>
       </c>
       <c r="C23">
-        <v>0.2659491167671888</v>
+        <v>0.7079926882170469</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08186544544132701</v>
+        <v>0.0406334388583236</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.085219188058403</v>
+        <v>1.56960510165743</v>
       </c>
       <c r="H23">
-        <v>0.9899072238304711</v>
+        <v>0.8297171668701253</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2804687207756587</v>
+        <v>0.5498917762662927</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.215139674935994</v>
+        <v>0.4220926317780958</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.962762751956461</v>
+        <v>4.861299628565348</v>
       </c>
       <c r="C24">
-        <v>0.2375639198463944</v>
+        <v>0.6110888466513984</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08217605367947023</v>
+        <v>0.03864184257278502</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.050819731211817</v>
+        <v>1.351963258085533</v>
       </c>
       <c r="H24">
-        <v>0.9831761725773447</v>
+        <v>0.7427802152245135</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2615926860371474</v>
+        <v>0.4683756340764376</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.243737926071777</v>
+        <v>0.495308200766301</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.72482475039601</v>
+        <v>3.94778697968701</v>
       </c>
       <c r="C25">
-        <v>0.2066793862462077</v>
+        <v>0.5085958816750633</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0826401337680096</v>
+        <v>0.03680714435925125</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.017114548628683</v>
+        <v>1.137303793585147</v>
       </c>
       <c r="H25">
-        <v>0.9783484700196539</v>
+        <v>0.6592836910457436</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2417418304359273</v>
+        <v>0.383637617396019</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.276865254151907</v>
+        <v>0.5813833181085126</v>
       </c>
       <c r="O25">
         <v>0</v>
